--- a/cs-models/eai/cms/smk.dk/SMKCO7009.xlsx
+++ b/cs-models/eai/cms/smk.dk/SMKCO7009.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradeva\Desktop\exportedExcels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Property name</t>
   </si>
   <si>
-    <t>Danish term</t>
-  </si>
-  <si>
     <t>Imported from CMS (Y/N)</t>
   </si>
   <si>
@@ -69,13 +61,10 @@
     <t>(system)API Search Criteria Mapping</t>
   </si>
   <si>
-    <t>(system)API Search Form </t>
-  </si>
-  <si>
-    <t>(system)API Search Form Sorting </t>
-  </si>
-  <si>
     <t> </t>
+  </si>
+  <si>
+    <t>(system)API Property Mapping</t>
   </si>
 </sst>
 </file>
@@ -173,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,12 +385,12 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,72 +434,66 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
